--- a/CashFlow/SSNC_cashflow.xlsx
+++ b/CashFlow/SSNC_cashflow.xlsx
@@ -889,19 +889,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-22100000.0</v>
+        <v>126000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-13100000.0</v>
+        <v>141000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>70900000.0</v>
+        <v>193400000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>101100000.0</v>
+        <v>182100000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>125000000.0</v>
+        <v>161600000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-43200000.0</v>
